--- a/Figures_data/fastsimcoal2/Total_model_data_nobottlenecks.xlsx
+++ b/Figures_data/fastsimcoal2/Total_model_data_nobottlenecks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\Population_genomics_Cassiope\Figures_data\fastsimcoal2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379E3CE1-A9AA-4532-A571-CC056F4C0F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F216DC22-9A5D-4555-90BE-5EE8993255D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="864" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="32">
   <si>
     <t>N_Europe</t>
   </si>
@@ -115,6 +115,30 @@
   <si>
     <t>Gen 100 Mertensiana No bottleneck Model A</t>
   </si>
+  <si>
+    <t>TDIVEurAla_kyrs</t>
+  </si>
+  <si>
+    <t>TDIVRusAla_kyrs</t>
+  </si>
+  <si>
+    <t>TDIVSaxTet_kyrs</t>
+  </si>
+  <si>
+    <t>TDIVGreEur_kyrs</t>
+  </si>
+  <si>
+    <t>TDIVEurAla_gen</t>
+  </si>
+  <si>
+    <t>TDIVRusAla_gen</t>
+  </si>
+  <si>
+    <t>TDIVSaxTet_gen</t>
+  </si>
+  <si>
+    <t>TDIVGreEur_gen</t>
+  </si>
 </sst>
 </file>
 
@@ -151,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -159,21 +183,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,688 +492,717 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:N13"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="7" width="14.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" customWidth="1"/>
+    <col min="12" max="12" width="5.109375" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-    </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="G2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>234283</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>930650</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>527321</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>841133</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>195377</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>5820155</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>30556</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>136859</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>671810</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <v>-9679.67</v>
       </c>
-      <c r="K3" s="9">
-        <v>-8446.5319999999992</v>
-      </c>
-      <c r="L3" s="9">
+      <c r="K3" s="7">
+        <v>-8446.5319999999992</v>
+      </c>
+      <c r="L3" s="7">
         <f>K3-J3</f>
         <v>1233.1380000000008</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="7">
         <f>G3*10/1000</f>
         <v>305.56</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="7">
         <f>H3*10/1000</f>
         <v>1368.59</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="7">
         <f>I3*10/1000</f>
         <v>6718.1</v>
       </c>
-      <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
         <v>150421</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="8">
         <v>964642</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="8">
         <v>310795</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="8">
         <v>835555</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="8">
         <v>194926</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="8">
         <v>5040609</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="8">
         <v>18954</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="8">
         <v>117326</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="8">
         <v>623535</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="8">
         <v>-9709.8799999999992</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="8">
         <v>-8446.5319999999992</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" ref="L4:L5" si="0">K4-J4</f>
         <v>1263.348</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="8">
         <f t="shared" ref="M4:M5" si="1">G4*10/1000</f>
         <v>189.54</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="8">
         <f t="shared" ref="N4:N5" si="2">H4*10/1000</f>
         <v>1173.26</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="8">
         <f t="shared" ref="O4:O5" si="3">I4*10/1000</f>
         <v>6235.35</v>
       </c>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
         <v>274033</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="8">
         <v>937721</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="8">
         <v>444519</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="8">
         <v>876327</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="8">
         <v>264149</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="8">
         <v>4934137</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="8">
         <v>37308</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="8">
         <v>124834</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="8">
         <v>800909</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="8">
         <v>-9726.3989999999994</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="8">
         <v>-8446.5319999999992</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" si="0"/>
         <v>1279.8670000000002</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="8">
         <f t="shared" si="1"/>
         <v>373.08</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="8">
         <f t="shared" si="2"/>
         <v>1248.3399999999999</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="8">
         <f t="shared" si="3"/>
         <v>8009.09</v>
       </c>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    </row>
+    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="G7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="P7" s="6"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>427060</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>994418</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>473763</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>883091</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>25298</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>5760086</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <v>12216</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <v>62031</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <v>155779</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <v>-8406.8449999999993</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="7">
         <v>-7410.1310000000003</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="7">
         <f>K8-J8</f>
         <v>996.71399999999903</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="7">
         <f>G8*10/1000</f>
         <v>122.16</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="7">
         <f>H8*10/1000</f>
         <v>620.30999999999995</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="7">
         <f>I8*10/1000</f>
         <v>1557.79</v>
       </c>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <v>271997</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="8">
         <v>954598</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="8">
         <v>348435</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="8">
         <v>857641</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="8">
         <v>29361</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="8">
         <v>5246897</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="8">
         <v>13068</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="8">
         <v>36987</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="8">
         <v>122528</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="8">
         <v>-8414.0190000000002</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="8">
         <v>-7410.1310000000003</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" ref="L9:L10" si="4">K9-J9</f>
         <v>1003.8879999999999</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="8">
         <f t="shared" ref="M9:M10" si="5">G9*10/1000</f>
         <v>130.68</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="8">
         <f t="shared" ref="N9:N10" si="6">H9*10/1000</f>
         <v>369.87</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="8">
         <f t="shared" ref="O9:O10" si="7">I9*10/1000</f>
         <v>1225.28</v>
       </c>
-      <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <v>219773</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="8">
         <v>894990</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="8">
         <v>322268</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="8">
         <v>868360</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="8">
         <v>20721</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="8">
         <v>5283226</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="8">
         <v>17900</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="8">
         <v>32411</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="8">
         <v>90573</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="8">
         <v>-8415.241</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="8">
         <v>-7410.1310000000003</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" si="4"/>
         <v>1005.1099999999997</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="8">
         <f t="shared" si="5"/>
         <v>179</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="8">
         <f t="shared" si="6"/>
         <v>324.11</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="8">
         <f t="shared" si="7"/>
         <v>905.73</v>
       </c>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="F12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>257770</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="7">
         <v>2021998</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="7">
         <v>554466</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="7">
         <v>476666</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="7">
         <v>2280</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="7">
         <v>40646</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="7">
         <v>162624</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="4">
         <v>1.14536E-2</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="4">
         <v>2.5622200000000001E-2</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="7">
         <v>-7113.5829999999996</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="7">
         <v>-6864.5540000000001</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="7">
         <f>K13-J13</f>
         <v>249.02899999999954</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="7">
         <f>F13*10/1000</f>
         <v>406.46</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="7">
         <f>G13*10/1000</f>
         <v>1626.24</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
         <v>205310</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="8">
         <v>1425413</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="8">
         <v>389626</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="8">
         <v>825109</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="8">
         <v>4168</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="8">
         <v>30592</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="8">
         <v>114536</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="5">
         <v>2.1234300000000001E-2</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="5">
         <v>3.0169100000000001E-2</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="8">
         <v>-7118.5569999999998</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="8">
         <v>-6864.5540000000001</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="8">
         <f t="shared" ref="L14:L15" si="8">K14-J14</f>
         <v>254.0029999999997</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="8">
         <f>F14*10/1000</f>
         <v>305.92</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="8">
         <f>G14*10/1000</f>
         <v>1145.3599999999999</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
         <v>174184</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="8">
         <v>1396717</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="8">
         <v>377134</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="8">
         <v>833666</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="8">
         <v>3019</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="8">
         <v>24865</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="8">
         <v>108295</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="5">
         <v>1.11214E-2</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="5">
         <v>1.9033000000000001E-2</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="8">
         <v>-7113.7030000000004</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="8">
         <v>-6864.5540000000001</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="8">
         <f t="shared" si="8"/>
         <v>249.14900000000034</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="8">
         <f t="shared" ref="M15" si="9">F15*10/1000</f>
         <v>248.65</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="8">
         <f t="shared" ref="N15" si="10">G15*10/1000</f>
         <v>1082.95</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    </row>
+    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>6</v>
+      <c r="F17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>15</v>
@@ -1143,616 +1210,642 @@
       <c r="I17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
         <v>910164</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="7">
         <v>3108542</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <v>64392</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="7">
         <v>160462</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="7">
         <v>4466</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="7">
         <v>129256</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="7">
         <v>10808</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="4">
         <v>2.0150899999999999E-2</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="4">
         <v>3.0201100000000002E-2</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="7">
         <v>-5665.6980000000003</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="7">
         <v>-5522.2190000000001</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="7">
         <f>K18-J18</f>
         <v>143.47900000000027</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="7">
         <f>F18*10/1000</f>
         <v>1292.56</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="7">
         <f>G18*10/1000</f>
         <v>108.08</v>
       </c>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
         <v>326504</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="8">
         <v>1098981</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="8">
         <v>22838</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="8">
         <v>10552</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="8">
         <v>607443</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="8">
         <v>44768</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="8">
         <v>3381</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="5">
         <v>1.30797E-2</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="5">
         <v>2.2046400000000001E-2</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="8">
         <v>-5668.4049999999997</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="8">
         <v>-5522.2190000000001</v>
       </c>
       <c r="L19" s="8">
         <f t="shared" ref="L19:L20" si="11">K19-J19</f>
         <v>146.18599999999969</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="8">
         <f t="shared" ref="M19:M20" si="12">F19*10/1000</f>
         <v>447.68</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="8">
         <f t="shared" ref="N19:N20" si="13">G19*10/1000</f>
         <v>33.81</v>
       </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
         <v>584048</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="8">
         <v>2074613</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="8">
         <v>30179</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="8">
         <v>11755</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="8">
         <v>507395</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="8">
         <v>79392</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="8">
         <v>4444</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="5">
         <v>5.8308400000000003E-2</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="5">
         <v>0.10730489999999999</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="8">
         <v>-5669.44</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="8">
         <v>-5522.2190000000001</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="8">
         <f t="shared" si="11"/>
         <v>147.22099999999955</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="8">
         <f t="shared" si="12"/>
         <v>793.92</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="8">
         <f t="shared" si="13"/>
         <v>44.44</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B23" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="G23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="M23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>134497</v>
+      </c>
+      <c r="B24" s="7">
+        <v>223554</v>
+      </c>
+      <c r="C24" s="7">
+        <v>157049</v>
+      </c>
+      <c r="D24" s="7">
+        <v>185013</v>
+      </c>
+      <c r="E24" s="7">
+        <v>59739</v>
+      </c>
+      <c r="F24" s="7">
+        <v>3731995</v>
+      </c>
+      <c r="G24" s="7">
+        <v>13019</v>
+      </c>
+      <c r="H24" s="7">
+        <v>52781</v>
+      </c>
+      <c r="I24" s="7">
+        <v>187553</v>
+      </c>
+      <c r="J24" s="7">
+        <v>-9491.4650000000001</v>
+      </c>
+      <c r="K24" s="7">
+        <v>-8446.5319999999992</v>
+      </c>
+      <c r="L24" s="7">
+        <f>K24-J24</f>
+        <v>1044.9330000000009</v>
+      </c>
+      <c r="M24" s="7">
+        <f>G24*10/1000</f>
+        <v>130.19</v>
+      </c>
+      <c r="N24" s="7">
+        <f>H24*10/1000</f>
+        <v>527.80999999999995</v>
+      </c>
+      <c r="O24" s="7">
+        <f>I24*10/1000</f>
+        <v>1875.53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
         <v>102416</v>
       </c>
-      <c r="B26">
+      <c r="B25" s="8">
         <v>201808</v>
       </c>
-      <c r="C26">
+      <c r="C25" s="8">
         <v>98347</v>
       </c>
-      <c r="D26">
+      <c r="D25" s="8">
         <v>194779</v>
       </c>
-      <c r="E26">
+      <c r="E25" s="8">
         <v>61470</v>
       </c>
-      <c r="F26">
+      <c r="F25" s="8">
         <v>2900213</v>
       </c>
-      <c r="G26">
+      <c r="G25" s="8">
         <v>12788</v>
       </c>
-      <c r="H26">
+      <c r="H25" s="8">
         <v>37050</v>
       </c>
-      <c r="I26">
+      <c r="I25" s="8">
         <v>190162</v>
       </c>
-      <c r="J26">
+      <c r="J25" s="8">
         <v>-9493.8909999999996</v>
       </c>
-      <c r="K26">
-        <v>-8446.5319999999992</v>
-      </c>
-      <c r="L26">
-        <f t="shared" ref="L26:L28" si="14">K26-J26</f>
+      <c r="K25" s="8">
+        <v>-8446.5319999999992</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" ref="L25:L26" si="14">K25-J25</f>
         <v>1047.3590000000004</v>
       </c>
-      <c r="M26" s="5">
-        <f>G26*10/1000</f>
+      <c r="M25" s="8">
+        <f>G25*10/1000</f>
         <v>127.88</v>
       </c>
-      <c r="N26" s="5">
-        <f>H26*10/1000</f>
+      <c r="N25" s="8">
+        <f>H25*10/1000</f>
         <v>370.5</v>
       </c>
-      <c r="O26" s="5">
-        <f>I26*10/1000</f>
+      <c r="O25" s="8">
+        <f>I25*10/1000</f>
         <v>1901.62</v>
       </c>
-      <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
         <v>87111</v>
       </c>
-      <c r="B27">
+      <c r="B26" s="8">
         <v>215892</v>
       </c>
-      <c r="C27">
+      <c r="C26" s="8">
         <v>130802</v>
       </c>
-      <c r="D27">
+      <c r="D26" s="8">
         <v>184736</v>
       </c>
-      <c r="E27">
+      <c r="E26" s="8">
         <v>52615</v>
       </c>
-      <c r="F27">
+      <c r="F26" s="8">
         <v>3069606</v>
       </c>
-      <c r="G27">
+      <c r="G26" s="8">
         <v>13811</v>
       </c>
-      <c r="H27">
+      <c r="H26" s="8">
         <v>37381</v>
       </c>
-      <c r="I27">
+      <c r="I26" s="8">
         <v>175313</v>
       </c>
-      <c r="J27">
+      <c r="J26" s="8">
         <v>-9493.6579999999994</v>
       </c>
-      <c r="K27">
-        <v>-8446.5319999999992</v>
-      </c>
-      <c r="L27">
+      <c r="K26" s="8">
+        <v>-8446.5319999999992</v>
+      </c>
+      <c r="L26" s="8">
         <f t="shared" si="14"/>
         <v>1047.1260000000002</v>
       </c>
-      <c r="M27" s="5">
-        <f t="shared" ref="M27:M28" si="15">G27*10/1000</f>
+      <c r="M26" s="8">
+        <f t="shared" ref="M26" si="15">G26*10/1000</f>
         <v>138.11000000000001</v>
       </c>
-      <c r="N27" s="5">
-        <f t="shared" ref="N27:N28" si="16">H27*10/1000</f>
+      <c r="N26" s="8">
+        <f t="shared" ref="N26" si="16">H26*10/1000</f>
         <v>373.81</v>
       </c>
-      <c r="O27" s="5">
-        <f t="shared" ref="O27:O28" si="17">I27*10/1000</f>
+      <c r="O26" s="8">
+        <f t="shared" ref="O26" si="17">I26*10/1000</f>
         <v>1753.13</v>
       </c>
-      <c r="P27" s="5"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>134497</v>
-      </c>
-      <c r="B28">
-        <v>223554</v>
-      </c>
-      <c r="C28">
-        <v>157049</v>
-      </c>
-      <c r="D28">
-        <v>185013</v>
-      </c>
-      <c r="E28">
-        <v>59739</v>
-      </c>
-      <c r="F28">
-        <v>3731995</v>
-      </c>
-      <c r="G28">
-        <v>13019</v>
-      </c>
-      <c r="H28">
-        <v>52781</v>
-      </c>
-      <c r="I28">
-        <v>187553</v>
-      </c>
-      <c r="J28">
-        <v>-9491.4650000000001</v>
-      </c>
-      <c r="K28">
-        <v>-8446.5319999999992</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="14"/>
-        <v>1044.9330000000009</v>
-      </c>
-      <c r="M28" s="5">
-        <f t="shared" si="15"/>
-        <v>130.19</v>
-      </c>
-      <c r="N28" s="5">
-        <f t="shared" si="16"/>
-        <v>527.80999999999995</v>
-      </c>
-      <c r="O28" s="5">
-        <f t="shared" si="17"/>
-        <v>1875.53</v>
-      </c>
-      <c r="P28" s="5"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="5"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B28" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="3" t="s">
+      <c r="G28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L28" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P30" s="5"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="M28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
         <v>33885</v>
       </c>
-      <c r="B31">
+      <c r="B29" s="7">
         <v>105239</v>
       </c>
-      <c r="C31">
+      <c r="C29" s="7">
         <v>68230</v>
       </c>
-      <c r="D31">
+      <c r="D29" s="7">
         <v>99404</v>
       </c>
-      <c r="E31">
+      <c r="E29" s="7">
         <v>31160</v>
       </c>
-      <c r="F31">
+      <c r="F29" s="7">
         <v>2176084</v>
       </c>
-      <c r="G31">
+      <c r="G29" s="7">
         <v>5854</v>
       </c>
-      <c r="H31">
+      <c r="H29" s="7">
         <v>26063</v>
       </c>
-      <c r="I31">
+      <c r="I29" s="7">
         <v>94083</v>
       </c>
-      <c r="J31">
+      <c r="J29" s="7">
         <v>-9461.7440000000006</v>
       </c>
-      <c r="K31">
-        <v>-8446.5319999999992</v>
-      </c>
-      <c r="L31">
-        <f>K31-J31</f>
+      <c r="K29" s="7">
+        <v>-8446.5319999999992</v>
+      </c>
+      <c r="L29" s="7">
+        <f>K29-J29</f>
         <v>1015.2120000000014</v>
       </c>
-      <c r="M31" s="5">
-        <f>G31*10/1000</f>
+      <c r="M29" s="7">
+        <f>G29*10/1000</f>
         <v>58.54</v>
       </c>
-      <c r="N31" s="5">
-        <f>H31*10/1000</f>
+      <c r="N29" s="7">
+        <f>H29*10/1000</f>
         <v>260.63</v>
       </c>
-      <c r="O31" s="5">
-        <f>I31*10/1000</f>
+      <c r="O29" s="7">
+        <f>I29*10/1000</f>
         <v>940.83</v>
       </c>
-      <c r="P31" s="5"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
         <v>46131</v>
       </c>
-      <c r="B32">
+      <c r="B30" s="8">
         <v>107711</v>
       </c>
-      <c r="C32">
+      <c r="C30" s="8">
         <v>58205</v>
       </c>
-      <c r="D32">
+      <c r="D30" s="8">
         <v>92490</v>
       </c>
-      <c r="E32">
+      <c r="E30" s="8">
         <v>27346</v>
       </c>
-      <c r="F32">
+      <c r="F30" s="8">
         <v>2178066</v>
       </c>
-      <c r="G32">
+      <c r="G30" s="8">
         <v>7213</v>
       </c>
-      <c r="H32">
+      <c r="H30" s="8">
         <v>17006</v>
       </c>
-      <c r="I32">
+      <c r="I30" s="8">
         <v>85436</v>
       </c>
-      <c r="J32">
+      <c r="J30" s="8">
         <v>-9463.2019999999993</v>
       </c>
-      <c r="K32">
-        <v>-8446.5319999999992</v>
-      </c>
-      <c r="L32">
-        <f t="shared" ref="L32:L33" si="18">K32-J32</f>
+      <c r="K30" s="8">
+        <v>-8446.5319999999992</v>
+      </c>
+      <c r="L30" s="8">
+        <f t="shared" ref="L30:L31" si="18">K30-J30</f>
         <v>1016.6700000000001</v>
       </c>
-      <c r="M32" s="5">
-        <f t="shared" ref="M32:M33" si="19">G32*10/1000</f>
+      <c r="M30" s="8">
+        <f t="shared" ref="M30:M31" si="19">G30*10/1000</f>
         <v>72.13</v>
       </c>
-      <c r="N32" s="5">
-        <f t="shared" ref="N32:N33" si="20">H32*10/1000</f>
+      <c r="N30" s="8">
+        <f t="shared" ref="N30:N31" si="20">H30*10/1000</f>
         <v>170.06</v>
       </c>
-      <c r="O32" s="5">
-        <f t="shared" ref="O32:O33" si="21">I32*10/1000</f>
+      <c r="O30" s="8">
+        <f t="shared" ref="O30:O31" si="21">I30*10/1000</f>
         <v>854.36</v>
       </c>
-      <c r="P32" s="5"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
         <v>44456</v>
       </c>
-      <c r="B33">
+      <c r="B31" s="8">
         <v>107672</v>
       </c>
-      <c r="C33">
+      <c r="C31" s="8">
         <v>67230</v>
       </c>
-      <c r="D33">
+      <c r="D31" s="8">
         <v>95863</v>
       </c>
-      <c r="E33">
+      <c r="E31" s="8">
         <v>29421</v>
       </c>
-      <c r="F33">
+      <c r="F31" s="8">
         <v>2116637</v>
       </c>
-      <c r="G33">
+      <c r="G31" s="8">
         <v>7075</v>
       </c>
-      <c r="H33">
+      <c r="H31" s="8">
         <v>26182</v>
       </c>
-      <c r="I33">
+      <c r="I31" s="8">
         <v>92295</v>
       </c>
-      <c r="J33">
+      <c r="J31" s="8">
         <v>-9464.4599999999991</v>
       </c>
-      <c r="K33">
-        <v>-8446.5319999999992</v>
-      </c>
-      <c r="L33">
+      <c r="K31" s="8">
+        <v>-8446.5319999999992</v>
+      </c>
+      <c r="L31" s="8">
         <f t="shared" si="18"/>
         <v>1017.9279999999999</v>
       </c>
-      <c r="M33">
+      <c r="M31" s="8">
         <f t="shared" si="19"/>
         <v>70.75</v>
       </c>
-      <c r="N33">
+      <c r="N31" s="8">
         <f t="shared" si="20"/>
         <v>261.82</v>
       </c>
-      <c r="O33">
+      <c r="O31" s="8">
         <f t="shared" si="21"/>
         <v>922.95</v>
       </c>
     </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
